--- a/Tests/automation_username_password.xlsx
+++ b/Tests/automation_username_password.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git work\SeleniumQAApp-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git work\SeleniumQAApp-\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{035E6FC6-F758-412D-8E93-B76C579A239E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E22F77D-1283-44BE-81F3-F54974AB3A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2920C9D9-3BBC-4664-B440-B8C86016F89B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>TASK TRACKER</t>
+  </si>
+  <si>
+    <t>Welcome to Selenium Learning Group</t>
+  </si>
+  <si>
+    <t>Contact List</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user123</t>
   </si>
 </sst>
 </file>
@@ -104,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC8635A-3D11-4D74-9C53-ABE19F5BAEC5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -454,6 +467,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
